--- a/biology/Botanique/Ben_Davis_(cultivar_de_pommier)/Ben_Davis_(cultivar_de_pommier).xlsx
+++ b/biology/Botanique/Ben_Davis_(cultivar_de_pommier)/Ben_Davis_(cultivar_de_pommier).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ben Davis est un cultivar de pommier domestique. 
 </t>
@@ -511,7 +523,9 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Variété répandue aux États-Unis
 </t>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Fleurs: odoriférantes</t>
         </is>
@@ -572,7 +588,9 @@
           <t>Parenté</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Descendants:
 Cortland
@@ -610,9 +628,11 @@
           <t>Pollinisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Groupe de floraison: C[1].</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Groupe de floraison: C.</t>
         </is>
       </c>
     </row>
@@ -640,7 +660,9 @@
           <t>Résistances et susceptibilités</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Feu bactérien: peu susceptible</t>
         </is>
